--- a/tut05/output/0501CS22.xlsx
+++ b/tut05/output/0501CS22.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.346938775510204</v>
+        <v>7.35</v>
       </c>
       <c r="C6" t="n">
         <v>6.75</v>
       </c>
       <c r="D6" t="n">
-        <v>6.813953488372093</v>
+        <v>6.81</v>
       </c>
       <c r="E6" t="n">
-        <v>7.319148936170213</v>
+        <v>7.32</v>
       </c>
       <c r="F6" t="n">
-        <v>7.285714285714286</v>
+        <v>7.29</v>
       </c>
       <c r="G6" t="n">
         <v>8.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.536585365853659</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>8.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.346938775510204</v>
+        <v>7.35</v>
       </c>
       <c r="C8" t="n">
-        <v>7.064516129032258</v>
+        <v>7.06</v>
       </c>
       <c r="D8" t="n">
-        <v>6.985294117647059</v>
+        <v>6.99</v>
       </c>
       <c r="E8" t="n">
-        <v>7.071038251366121</v>
+        <v>7.07</v>
       </c>
       <c r="F8" t="n">
-        <v>7.111111111111111</v>
+        <v>7.11</v>
       </c>
       <c r="G8" t="n">
-        <v>7.283018867924528</v>
+        <v>7.28</v>
       </c>
       <c r="H8" t="n">
-        <v>7.450980392156863</v>
+        <v>7.45</v>
       </c>
       <c r="I8" t="n">
-        <v>7.543352601156069</v>
+        <v>7.54</v>
       </c>
     </row>
   </sheetData>
